--- a/pesantren/yang mau masuk rapot/adab.xlsx
+++ b/pesantren/yang mau masuk rapot/adab.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zen\pesantren\yang mau masuk rapot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28277A70-ED45-4279-8822-B95DABA3D339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD9D3A7B-BA51-4624-8C2E-CAB77B1D2229}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,17 +19,6 @@
     <sheet name="RAPORT" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1202,11 +1191,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,36 +1231,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2001,7 +1990,7 @@
   <sheetData>
     <row r="1" spans="1:35">
       <c r="B1" s="1"/>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="97" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="83"/>
@@ -2036,7 +2025,7 @@
     <row r="2" spans="1:35">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="97" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="83"/>
@@ -2070,7 +2059,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="B3" s="1"/>
-      <c r="D3" s="89"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
       <c r="G3" s="83"/>
@@ -2104,7 +2093,7 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="82" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="83"/>
@@ -2135,14 +2124,14 @@
       <c r="AC4" s="83"/>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
-      <c r="AG4" s="94"/>
+      <c r="AG4" s="82"/>
       <c r="AH4" s="83"/>
     </row>
     <row r="5" spans="1:35" ht="15.75">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="94" t="s">
+      <c r="C5" s="82" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="83"/>
@@ -2182,104 +2171,104 @@
       <c r="B7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="98"/>
-      <c r="R7" s="98"/>
-      <c r="S7" s="98"/>
-      <c r="T7" s="98"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="99"/>
-      <c r="AA7" s="100" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="95"/>
+      <c r="AA7" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="AB7" s="98"/>
-      <c r="AC7" s="98"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="99"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="95"/>
       <c r="AG7" s="7"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
     </row>
     <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="91"/>
-      <c r="B8" s="84" t="s">
+      <c r="B8" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="84">
         <v>1</v>
       </c>
-      <c r="D8" s="87"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="95">
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="87">
         <v>2</v>
       </c>
-      <c r="G8" s="87"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="86">
+      <c r="G8" s="85"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="84">
         <v>3</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="88"/>
-      <c r="L8" s="95">
+      <c r="J8" s="85"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="87">
         <v>4</v>
       </c>
-      <c r="M8" s="87"/>
-      <c r="N8" s="96"/>
-      <c r="O8" s="86">
+      <c r="M8" s="85"/>
+      <c r="N8" s="88"/>
+      <c r="O8" s="84">
         <v>5</v>
       </c>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="88"/>
-      <c r="R8" s="95">
+      <c r="P8" s="85"/>
+      <c r="Q8" s="86"/>
+      <c r="R8" s="87">
         <v>6</v>
       </c>
-      <c r="S8" s="87"/>
-      <c r="T8" s="96"/>
-      <c r="U8" s="86">
+      <c r="S8" s="85"/>
+      <c r="T8" s="88"/>
+      <c r="U8" s="84">
         <v>7</v>
       </c>
-      <c r="V8" s="87"/>
-      <c r="W8" s="88"/>
-      <c r="X8" s="95">
+      <c r="V8" s="85"/>
+      <c r="W8" s="86"/>
+      <c r="X8" s="87">
         <v>8</v>
       </c>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="96"/>
-      <c r="AA8" s="93" t="s">
+      <c r="Y8" s="85"/>
+      <c r="Z8" s="88"/>
+      <c r="AA8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="88"/>
-      <c r="AD8" s="93" t="s">
+      <c r="AB8" s="85"/>
+      <c r="AC8" s="86"/>
+      <c r="AD8" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="88"/>
+      <c r="AE8" s="85"/>
+      <c r="AF8" s="86"/>
       <c r="AG8" s="7"/>
     </row>
     <row r="9" spans="1:35" ht="19.5" customHeight="1" thickBot="1">
       <c r="A9" s="92"/>
-      <c r="B9" s="85"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
@@ -7155,13 +7144,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="D1:AF1"/>
+    <mergeCell ref="D2:AF2"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="D3:AF3"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="AD8:AF8"/>
     <mergeCell ref="C8:E8"/>
@@ -7170,11 +7157,13 @@
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="C7:Z7"/>
     <mergeCell ref="AA7:AF7"/>
-    <mergeCell ref="D1:AF1"/>
-    <mergeCell ref="D2:AF2"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="D3:AF3"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="AA8:AC8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape"/>
@@ -7202,7 +7191,7 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="B1" s="1"/>
-      <c r="D1" s="82" t="s">
+      <c r="D1" s="97" t="s">
         <v>39</v>
       </c>
       <c r="E1" s="83"/>
@@ -7224,7 +7213,7 @@
     <row r="2" spans="1:32">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="97" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="83"/>
@@ -7258,7 +7247,7 @@
     </row>
     <row r="3" spans="1:32">
       <c r="B3" s="1"/>
-      <c r="D3" s="89"/>
+      <c r="D3" s="100"/>
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
       <c r="G3" s="83"/>
@@ -7293,7 +7282,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="94"/>
+      <c r="N4" s="82"/>
       <c r="O4" s="83"/>
       <c r="P4" s="83"/>
       <c r="Q4" s="83"/>
@@ -7344,25 +7333,25 @@
       <c r="B7" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="97" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="95"/>
+      <c r="M7" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="N7" s="98"/>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
       <c r="R7" s="101" t="s">
         <v>42</v>
       </c>
@@ -16175,7 +16164,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="63"/>
-      <c r="D2" s="82" t="s">
+      <c r="D2" s="97" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="83"/>
@@ -16235,7 +16224,7 @@
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="94"/>
+      <c r="O4" s="82"/>
       <c r="P4" s="83"/>
       <c r="Q4" s="83"/>
       <c r="R4" s="83"/>
@@ -16300,25 +16289,25 @@
       <c r="B7" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="97" t="s">
+      <c r="C7" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="98"/>
-      <c r="J7" s="98"/>
-      <c r="K7" s="98"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="97" t="s">
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="95"/>
+      <c r="N7" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="98"/>
-      <c r="P7" s="98"/>
-      <c r="Q7" s="99"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="95"/>
       <c r="R7" s="109" t="s">
         <v>52</v>
       </c>
@@ -38528,7 +38517,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="C8" sqref="C8:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15" customHeight="1"/>
@@ -38562,7 +38551,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="2"/>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="97" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="83"/>
